--- a/Modelos em Python/14 dias a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros treino.xlsx
+++ b/Modelos em Python/14 dias a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.39775496221415</v>
+        <v>45.44349310240215</v>
       </c>
       <c r="C11" t="n">
-        <v>121.2279724676107</v>
+        <v>121.3683999877964</v>
       </c>
       <c r="D11" t="n">
-        <v>133.9481107623104</v>
+        <v>134.0751399294469</v>
       </c>
     </row>
     <row r="12">
